--- a/src/test/java/com/dash2sell/testData/TemplateNumericFieldPageData.xlsx
+++ b/src/test/java/com/dash2sell/testData/TemplateNumericFieldPageData.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8ADD0E62-02D4-42E2-8A84-50461C9398D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohammad.parvez\Desktop\Template Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA75295-557D-473F-95B0-B0B45136BF16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21630" windowHeight="14850" xr2:uid="{4A8D5ECE-66BB-4E28-9D48-9BC62104923B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{238ACFC8-637F-48A8-A1D7-D35297C00D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,38 +39,37 @@
     <t>pass</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>fieldType</t>
   </si>
   <si>
+    <t>cap</t>
+  </si>
+  <si>
     <t>optional</t>
   </si>
   <si>
-    <t>identifier</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Anderson1!</t>
+  </si>
+  <si>
+    <t>brownp</t>
+  </si>
+  <si>
+    <t>Numeric</t>
   </si>
   <si>
     <t>minvalue</t>
   </si>
   <si>
-    <t>instruction</t>
-  </si>
-  <si>
-    <t>brownp</t>
-  </si>
-  <si>
     <t>maxvalue</t>
   </si>
   <si>
-    <t>looseattch</t>
-  </si>
-  <si>
-    <t>ATT</t>
-  </si>
-  <si>
-    <t>Anderson1!</t>
-  </si>
-  <si>
-    <t>First Instruction for numeric field type.
-This is second instruction</t>
+    <t>caption</t>
   </si>
 </sst>
 </file>
@@ -102,11 +105,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,24 +420,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F66F67F-53B4-4FB2-A7C5-551B373D8553}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB06BB4-91EE-4056-884F-E8128ECCE1FA}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,46 +454,39 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>866</v>
-      </c>
-      <c r="D2">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>